--- a/static/download/2023/RP3_APT_ASMA_2023_Jan_Dec.xlsx
+++ b/static/download/2023/RP3_APT_ASMA_2023_Jan_Dec.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="127">
   <si>
     <t>Data source</t>
   </si>
@@ -390,16 +390,20 @@
   </si>
   <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>Stuttgart added</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="d&quot; &quot;mmm&quot; &quot;yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="166" formatCode="d mmm yyyy"/>
+    <numFmt numFmtId="167" formatCode="dd-mm-yyyy"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -557,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -655,10 +659,13 @@
     <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="12" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -746,7 +753,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="9">
-        <v>45338.0</v>
+        <v>45365.0</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>5</v>
@@ -829,7 +836,7 @@
         <v>90706.0</v>
       </c>
       <c r="E6" s="28">
-        <f t="shared" ref="E6:E12" si="1">F6/D6</f>
+        <f t="shared" ref="E6:E17" si="1">F6/D6</f>
         <v>0.7473375521</v>
       </c>
       <c r="F6" s="27">
@@ -993,10 +1000,19 @@
       <c r="C13" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="29"/>
+      <c r="D13" s="27">
+        <v>38617.0</v>
+      </c>
+      <c r="E13" s="28">
+        <f t="shared" si="1"/>
+        <v>0.4642728591</v>
+      </c>
+      <c r="F13" s="27">
+        <v>17928.825</v>
+      </c>
+      <c r="G13" s="29">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="25" t="s">
@@ -1012,7 +1028,7 @@
         <v>65695.0</v>
       </c>
       <c r="E14" s="28">
-        <f t="shared" ref="E14:E17" si="2">F14/D14</f>
+        <f t="shared" si="1"/>
         <v>0.8247964076</v>
       </c>
       <c r="F14" s="27">
@@ -1036,7 +1052,7 @@
         <v>222744.0</v>
       </c>
       <c r="E15" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.097591854</v>
       </c>
       <c r="F15" s="27">
@@ -1060,7 +1076,7 @@
         <v>116792.0</v>
       </c>
       <c r="E16" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.910250702</v>
       </c>
       <c r="F16" s="27">
@@ -1084,7 +1100,7 @@
         <v>107929.0</v>
       </c>
       <c r="E17" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.099324556</v>
       </c>
       <c r="F17" s="27">
@@ -1123,7 +1139,7 @@
         <v>104557.0</v>
       </c>
       <c r="E19" s="28">
-        <f t="shared" ref="E19:E47" si="3">F19/D19</f>
+        <f t="shared" ref="E19:E47" si="2">F19/D19</f>
         <v>0.9280966363</v>
       </c>
       <c r="F19" s="27">
@@ -1147,7 +1163,7 @@
         <v>80314.0</v>
       </c>
       <c r="E20" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.192955151</v>
       </c>
       <c r="F20" s="27">
@@ -1171,7 +1187,7 @@
         <v>91991.0</v>
       </c>
       <c r="E21" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.7878161994</v>
       </c>
       <c r="F21" s="27">
@@ -1195,7 +1211,7 @@
         <v>49707.0</v>
       </c>
       <c r="E22" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.226125093</v>
       </c>
       <c r="F22" s="27">
@@ -1219,7 +1235,7 @@
         <v>48943.0</v>
       </c>
       <c r="E23" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.9217457042</v>
       </c>
       <c r="F23" s="27">
@@ -1243,7 +1259,7 @@
         <v>154432.0</v>
       </c>
       <c r="E24" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.028821747</v>
       </c>
       <c r="F24" s="27">
@@ -1267,7 +1283,7 @@
         <v>186804.0</v>
       </c>
       <c r="E25" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.8906393867</v>
       </c>
       <c r="F25" s="27">
@@ -1291,7 +1307,7 @@
         <v>74260.0</v>
       </c>
       <c r="E26" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.066401831</v>
       </c>
       <c r="F26" s="27">
@@ -1315,7 +1331,7 @@
         <v>100904.0</v>
       </c>
       <c r="E27" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.303050424</v>
       </c>
       <c r="F27" s="27">
@@ -1339,7 +1355,7 @@
         <v>33357.0</v>
       </c>
       <c r="E28" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.4311838595</v>
       </c>
       <c r="F28" s="27">
@@ -1363,7 +1379,7 @@
         <v>43241.0</v>
       </c>
       <c r="E29" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.4002913901</v>
       </c>
       <c r="F29" s="27">
@@ -1387,7 +1403,7 @@
         <v>47193.0</v>
       </c>
       <c r="E30" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.6851016041</v>
       </c>
       <c r="F30" s="27">
@@ -1411,7 +1427,7 @@
         <v>70940.0</v>
       </c>
       <c r="E31" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.348970961</v>
       </c>
       <c r="F31" s="27">
@@ -1435,7 +1451,7 @@
         <v>219583.0</v>
       </c>
       <c r="E32" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.032192838</v>
       </c>
       <c r="F32" s="27">
@@ -1459,7 +1475,7 @@
         <v>102406.0</v>
       </c>
       <c r="E33" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.9244673164</v>
       </c>
       <c r="F33" s="27">
@@ -1483,7 +1499,7 @@
         <v>103908.0</v>
       </c>
       <c r="E34" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.438609154</v>
       </c>
       <c r="F34" s="27">
@@ -1507,7 +1523,7 @@
         <v>51477.0</v>
       </c>
       <c r="E35" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.5821240554</v>
       </c>
       <c r="F35" s="27">
@@ -1531,7 +1547,7 @@
         <v>99006.0</v>
       </c>
       <c r="E36" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.947881947</v>
       </c>
       <c r="F36" s="27">
@@ -1555,7 +1571,7 @@
         <v>48860.0</v>
       </c>
       <c r="E37" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.20243553</v>
       </c>
       <c r="F37" s="27">
@@ -1579,7 +1595,7 @@
         <v>52767.0</v>
       </c>
       <c r="E38" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.8496598253</v>
       </c>
       <c r="F38" s="27">
@@ -1603,7 +1619,7 @@
         <v>42361.0</v>
       </c>
       <c r="E39" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.257831496</v>
       </c>
       <c r="F39" s="27">
@@ -1627,7 +1643,7 @@
         <v>130931.0</v>
       </c>
       <c r="E40" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.438666168</v>
       </c>
       <c r="F40" s="27">
@@ -1651,7 +1667,7 @@
         <v>54848.0</v>
       </c>
       <c r="E41" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.6931337515</v>
       </c>
       <c r="F41" s="27">
@@ -1675,7 +1691,7 @@
         <v>115034.0</v>
       </c>
       <c r="E42" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.07655128</v>
       </c>
       <c r="F42" s="27">
@@ -1699,7 +1715,7 @@
         <v>51178.0</v>
       </c>
       <c r="E43" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.9316503185</v>
       </c>
       <c r="F43" s="27">
@@ -1723,7 +1739,7 @@
         <v>110870.0</v>
       </c>
       <c r="E44" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.123505006</v>
       </c>
       <c r="F44" s="27">
@@ -1747,7 +1763,7 @@
         <v>53265.0</v>
       </c>
       <c r="E45" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.631822022</v>
       </c>
       <c r="F45" s="27">
@@ -1771,7 +1787,7 @@
         <v>80666.0</v>
       </c>
       <c r="E46" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.425606823</v>
       </c>
       <c r="F46" s="27">
@@ -1795,7 +1811,7 @@
         <v>115957.0</v>
       </c>
       <c r="E47" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.269505075</v>
       </c>
       <c r="F47" s="27">
@@ -1841,36 +1857,36 @@
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="33" t="s">
-        <v>10</v>
+      <c r="A2" s="33">
+        <v>45364.0</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>10</v>
+        <v>36</v>
+      </c>
+      <c r="C2" s="34">
+        <v>2023.0</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="35"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="36"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="41"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
